--- a/biology/Botanique/Colli_Orientali_del_Friuli_Rosazzo_Picolit_riserva/Colli_Orientali_del_Friuli_Rosazzo_Picolit_riserva.xlsx
+++ b/biology/Botanique/Colli_Orientali_del_Friuli_Rosazzo_Picolit_riserva/Colli_Orientali_del_Friuli_Rosazzo_Picolit_riserva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Colli Orientali del Friuli Rosazzo Picolit est un vin blanc doux italien de la région Frioul-Vénétie Julienne doté d'une appellation DOCG depuis le 30 mars 2006 après avoir été doté d’une DOC le 20 juillet 1970. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent au nord - est de la province d'Udine dans les communes de Tarcento, Nimis, Faedis, Povoletto, Attimis, Torreano, San Pietro al Natisone, Prepotto, Premariacco, Buttrio, Manzano, San Giovanni al Natisone et Corno di Rosazzo.
@@ -515,7 +527,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: jaune doré plus ou moins intense
 odeur: délicat, caractéristique, avec des arômes de fleurs d’acacia.
@@ -549,7 +563,9 @@
           <t>Associations de plats conseillées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Foie gras, stilton, roquefort.
 </t>
@@ -580,7 +596,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
 Udine (1996/97) 28,77
